--- a/check-list.xlsx
+++ b/check-list.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1stPlayer\Documents\Гит\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1stPlayer\GIT repository\Checklist-\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,10 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
-  <si>
-    <t>Отправка пустой формы</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
   <si>
     <t>Ошибка при загрузке в формате txt</t>
   </si>
@@ -61,9 +58,6 @@
   </si>
   <si>
     <t>Регистрация пользователя нового пользователя</t>
-  </si>
-  <si>
-    <t>отправка пустой формы</t>
   </si>
   <si>
     <t xml:space="preserve">e-mail зарегистрирован/верный пароль </t>
@@ -197,6 +191,18 @@
   </si>
   <si>
     <t>https://petstore.swagger.io</t>
+  </si>
+  <si>
+    <t>Отправка пустой формы регистрации нового пользователя</t>
+  </si>
+  <si>
+    <t>Отправка пустой формы смены пароля</t>
+  </si>
+  <si>
+    <t>Отправка пустой формы загрузки документов</t>
+  </si>
+  <si>
+    <t>отправка пустой формы для входа в ЛК</t>
   </si>
 </sst>
 </file>
@@ -850,7 +856,7 @@
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -870,26 +876,26 @@
     </row>
     <row r="2" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="32" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="16"/>
@@ -897,7 +903,7 @@
     </row>
     <row r="5" spans="1:4" s="11" customFormat="1" ht="16.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="13"/>
@@ -905,7 +911,7 @@
     </row>
     <row r="6" spans="1:4" ht="55.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="13"/>
@@ -913,7 +919,7 @@
     </row>
     <row r="7" spans="1:4" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="13"/>
@@ -921,7 +927,7 @@
     </row>
     <row r="8" spans="1:4" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="4"/>
@@ -929,7 +935,7 @@
     </row>
     <row r="9" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="4"/>
@@ -937,7 +943,7 @@
     </row>
     <row r="10" spans="1:4" s="11" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="4"/>
@@ -945,7 +951,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="4"/>
@@ -953,7 +959,7 @@
     </row>
     <row r="12" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="4"/>
@@ -961,7 +967,7 @@
     </row>
     <row r="13" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="4"/>
@@ -969,7 +975,7 @@
     </row>
     <row r="14" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="4"/>
@@ -977,7 +983,7 @@
     </row>
     <row r="15" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="4"/>
@@ -985,7 +991,7 @@
     </row>
     <row r="16" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="4"/>
@@ -993,7 +999,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="4"/>
@@ -1001,7 +1007,7 @@
     </row>
     <row r="18" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="4"/>
@@ -1009,15 +1015,15 @@
     </row>
     <row r="19" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="4"/>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="4"/>
@@ -1025,7 +1031,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="4"/>
@@ -1033,7 +1039,7 @@
     </row>
     <row r="22" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="4"/>
@@ -1041,7 +1047,7 @@
     </row>
     <row r="23" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="4"/>
@@ -1049,7 +1055,7 @@
     </row>
     <row r="24" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="4"/>
@@ -1057,7 +1063,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="4"/>
@@ -1065,7 +1071,7 @@
     </row>
     <row r="26" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="4"/>
@@ -1073,7 +1079,7 @@
     </row>
     <row r="27" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="4"/>
@@ -1081,7 +1087,7 @@
     </row>
     <row r="28" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="4"/>
@@ -1089,7 +1095,7 @@
     </row>
     <row r="29" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="4"/>
@@ -1097,7 +1103,7 @@
     </row>
     <row r="30" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="4"/>
@@ -1144,26 +1150,26 @@
   <sheetData>
     <row r="2" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="31" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B4" s="28"/>
       <c r="C4" s="27"/>
@@ -1171,7 +1177,7 @@
     </row>
     <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B5" s="24"/>
       <c r="C5" s="24"/>
@@ -1179,7 +1185,7 @@
     </row>
     <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B6" s="24"/>
       <c r="C6" s="24"/>
@@ -1187,7 +1193,7 @@
     </row>
     <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B7" s="24"/>
       <c r="C7" s="24"/>
@@ -1195,7 +1201,7 @@
     </row>
     <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B8" s="24"/>
       <c r="C8" s="24"/>
@@ -1203,7 +1209,7 @@
     </row>
     <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B9" s="24"/>
       <c r="C9" s="24"/>
@@ -1211,7 +1217,7 @@
     </row>
     <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B10" s="24"/>
       <c r="C10" s="24"/>
@@ -1219,7 +1225,7 @@
     </row>
     <row r="11" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B11" s="24"/>
       <c r="C11" s="24"/>
@@ -1227,7 +1233,7 @@
     </row>
     <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B12" s="24"/>
       <c r="C12" s="24"/>
@@ -1235,7 +1241,7 @@
     </row>
     <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B13" s="24"/>
       <c r="C13" s="24"/>
@@ -1243,7 +1249,7 @@
     </row>
     <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B14" s="24"/>
       <c r="C14" s="24"/>
@@ -1251,7 +1257,7 @@
     </row>
     <row r="15" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B15" s="24"/>
       <c r="C15" s="24"/>
@@ -1259,7 +1265,7 @@
     </row>
     <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B16" s="24"/>
       <c r="C16" s="24"/>
@@ -1267,7 +1273,7 @@
     </row>
     <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B17" s="24"/>
       <c r="C17" s="24"/>
@@ -1275,7 +1281,7 @@
     </row>
     <row r="18" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B18" s="24"/>
       <c r="C18" s="24"/>
